--- a/data/MSME Country Indicators - Lao PDR Summary.xlsx
+++ b/data/MSME Country Indicators - Lao PDR Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Lao PDR</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>21.8</t>
   </si>
   <si>
+    <t>84.4</t>
+  </si>
+  <si>
     <t>Employment (absolute #)</t>
   </si>
   <si>
@@ -86,6 +92,30 @@
   </si>
   <si>
     <t>Source: NSC, 2006</t>
+  </si>
+  <si>
+    <t>Source Type: SME Associations</t>
+  </si>
+  <si>
+    <t>114221.7</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>Source: LNCCI, 2006</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>National Statistics Centre (NSC), "Report of Economic Census, 2006 Volume 1", 2007, p. 9, and Table 9.</t>
+  </si>
+  <si>
+    <t>LNCCI</t>
+  </si>
+  <si>
+    <t>Lao National Chamber of Commerce and Industry (LNCCI), Economic Info, SMEs available at http://www.laocci.com/index.php?option=com_content&amp;view=article&amp;id=62&amp;Itemid=66&amp;lang=en</t>
   </si>
 </sst>
 </file>
@@ -93,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -104,6 +134,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -136,26 +172,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -163,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -179,87 +218,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="C14" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Lao PDR Summary.xlsx
+++ b/data/MSME Country Indicators - Lao PDR Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Lao PDR</t>
   </si>
@@ -94,6 +94,39 @@
     <t>Source: NSC, 2006</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>10-99</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=100</t>
+  </si>
+  <si>
     <t>Source Type: SME Associations</t>
   </si>
   <si>
@@ -104,6 +137,30 @@
   </si>
   <si>
     <t>Source: LNCCI, 2006</t>
+  </si>
+  <si>
+    <t>&lt;20</t>
+  </si>
+  <si>
+    <t>&lt;= 250 M Kip</t>
+  </si>
+  <si>
+    <t>&lt;= 400 M Kip</t>
+  </si>
+  <si>
+    <t>&lt;100</t>
+  </si>
+  <si>
+    <t>&lt;= 1,200 M Kip</t>
+  </si>
+  <si>
+    <t>&lt;= 1,000 M Kip</t>
+  </si>
+  <si>
+    <t>&gt; 1,200 M Kip</t>
+  </si>
+  <si>
+    <t>&gt; 1,000 M Kip</t>
   </si>
   <si>
     <t>NSC</t>
@@ -202,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,76 +366,210 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="B38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="B39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Lao PDR Summary.xlsx
+++ b/data/MSME Country Indicators - Lao PDR Summary.xlsx
@@ -31,6 +31,18 @@
     <t>MSMEs</t>
   </si>
   <si>
+    <t>Enterprises density (per 1000 people)</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>Enterprises (absolute #)</t>
   </si>
   <si>
@@ -43,18 +55,6 @@
     <t>126695</t>
   </si>
   <si>
-    <t>Enterprises density (per 1000 people)</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
@@ -130,10 +130,10 @@
     <t>Source Type: SME Associations</t>
   </si>
   <si>
+    <t>19.4</t>
+  </si>
+  <si>
     <t>114221.7</t>
-  </si>
-  <si>
-    <t>19.4</t>
   </si>
   <si>
     <t>Source: LNCCI, 2006</t>

--- a/data/MSME Country Indicators - Lao PDR Summary.xlsx
+++ b/data/MSME Country Indicators - Lao PDR Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Lao PDR</t>
   </si>
@@ -166,13 +166,7 @@
     <t>NSC</t>
   </si>
   <si>
-    <t>National Statistics Centre (NSC), "Report of Economic Census, 2006 Volume 1", 2007, p. 9, and Table 9.</t>
-  </si>
-  <si>
     <t>LNCCI</t>
-  </si>
-  <si>
-    <t>Lao National Chamber of Commerce and Industry (LNCCI), Economic Info, SMEs available at http://www.laocci.com/index.php?option=com_content&amp;view=article&amp;id=62&amp;Itemid=66&amp;lang=en</t>
   </si>
 </sst>
 </file>
@@ -559,17 +553,17 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Lao PDR Summary.xlsx
+++ b/data/MSME Country Indicators - Lao PDR Summary.xlsx
@@ -34,13 +34,13 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>21.5</t>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>21.49</t>
   </si>
   <si>
     <t>Enterprises (absolute #)</t>
@@ -61,10 +61,10 @@
     <t>62.6</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>84.4</t>
+    <t>21.76</t>
+  </si>
+  <si>
+    <t>84.36</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>99.8</t>
+    <t>93.46</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>99.84</t>
   </si>
   <si>
     <t>Source: NSC, 2006</t>
@@ -130,7 +130,7 @@
     <t>Source Type: SME Associations</t>
   </si>
   <si>
-    <t>19.4</t>
+    <t>19.37</t>
   </si>
   <si>
     <t>114221.7</t>
